--- a/notasUnivalle.xlsx
+++ b/notasUnivalle.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyects\notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5333BE97-9821-4ECF-8258-FBC447C87D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C4148F-FF25-41C3-99F9-BE3B5E70C654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DE8AD933-552D-4B6E-A93C-70195FD900B9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DE8AD933-552D-4B6E-A93C-70195FD900B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="NOMBRE">Sheet1!$D$1</definedName>
+    <definedName name="NOMBRE">Sheet1!$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,54 +39,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Número</t>
   </si>
   <si>
-    <t>Carrera</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
     <t>NOMBRE COMPLETO</t>
   </si>
   <si>
     <t>Faltas 1ºP</t>
   </si>
   <si>
-    <t>Faltas 2ºP</t>
-  </si>
-  <si>
-    <t>Faltas EF</t>
-  </si>
-  <si>
     <t>1º Parcial</t>
   </si>
   <si>
-    <t>2º Parcial</t>
-  </si>
-  <si>
-    <t>Examen Final</t>
-  </si>
-  <si>
-    <t>Nota Final</t>
-  </si>
-  <si>
-    <t>ISI</t>
-  </si>
-  <si>
-    <t>Inscrito</t>
-  </si>
-  <si>
     <t>AGUILAR TRIVEÑO JORGE DILAN</t>
   </si>
   <si>
     <t>CABRERA GOMEZ SEBASTIAN MATEO</t>
-  </si>
-  <si>
-    <t>Pre-Inscrito</t>
   </si>
   <si>
     <t>CLAROS GUTIERREZ VICTOR HUGO</t>
@@ -189,7 +159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -202,15 +172,6 @@
         <color rgb="FFC0C0C0"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFC0C0C0"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -235,22 +196,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFC0C0C0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -270,15 +220,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -288,14 +232,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,15 +570,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52F65FF-CCD8-4897-97AC-B9227BC41E62}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -653,427 +591,230 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C3" s="4">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C5" s="4">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="C7" s="4">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C9" s="4">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2">
-        <v>99</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="E3" s="4">
-        <v>3</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4">
-        <v>78</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="4">
+        <v>6</v>
+      </c>
+      <c r="D15" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="E4" s="2">
+      <c r="B17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="10">
         <v>4</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2">
-        <v>66</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="4">
-        <v>6</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4">
-        <v>43</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2">
-        <v>13</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="4">
-        <v>7</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4">
+      <c r="D17" s="10">
         <v>56</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2">
-        <v>87</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4">
-        <v>8</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4">
-        <v>56</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="2">
-        <v>9</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2">
-        <v>45</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4">
-        <v>34</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2">
-        <v>56</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4">
-        <v>76</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="2">
-        <v>7</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2">
-        <v>78</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" spans="1:11" ht="27" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="4">
-        <v>6</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4">
-        <v>98</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" ht="36" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="2">
-        <v>5</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2">
-        <v>67</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="1:11" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="13">
-        <v>4</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13">
-        <v>56</v>
-      </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
